--- a/April'21/28.04.2021/Daily Sales Info.xlsx
+++ b/April'21/28.04.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="27"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="85">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -1142,7 +1142,161 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1394">
+  <dxfs count="1410">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -14981,188 +15135,188 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E28:K29 E4:H4 E6:H6">
-    <cfRule type="cellIs" dxfId="1393" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1409" priority="44" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E28:K29 E4 E6">
-    <cfRule type="cellIs" dxfId="1392" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1408" priority="42" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1391" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1407" priority="43" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F28:F29 F4 F6">
-    <cfRule type="cellIs" dxfId="1390" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1406" priority="40" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1389" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1405" priority="41" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G29 G4 G6">
-    <cfRule type="cellIs" dxfId="1388" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1404" priority="38" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1387" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1403" priority="39" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29 H4 H6">
-    <cfRule type="cellIs" dxfId="1386" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1402" priority="36" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1385" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1401" priority="37" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1384" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1400" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1383" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1382" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1381" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1399" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1398" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1397" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:K28 E4 E6">
-    <cfRule type="cellIs" dxfId="1380" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="1396" priority="31" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D4:K4 M4 D6">
-    <cfRule type="cellIs" dxfId="1379" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1395" priority="30" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I29 I4 I6">
-    <cfRule type="cellIs" dxfId="1378" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1394" priority="29" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J29 J4 J6">
-    <cfRule type="cellIs" dxfId="1377" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1393" priority="28" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K29 K4 K6">
-    <cfRule type="cellIs" dxfId="1376" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1392" priority="27" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1375" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1391" priority="26" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1374" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1373" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1372" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1390" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1389" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1388" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1371" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1387" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1370" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1369" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1368" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1386" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1385" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1384" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1367" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1366" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1365" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1383" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1382" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1381" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1364" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1380" priority="13" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1363" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1379" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1362" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1378" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1361" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1377" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1360" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1376" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1359" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1375" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1358" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1374" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1357" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1373" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1356" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1372" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1355" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1371" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1354" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1370" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1353" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1369" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:L5">
-    <cfRule type="cellIs" dxfId="1352" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1368" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16666,193 +16820,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="999" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1015" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="998" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1014" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="997" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1013" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="996" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1012" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="995" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1011" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="994" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1010" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="993" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1009" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="992" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1008" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="991" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1007" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="990" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1006" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="989" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="988" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="987" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1005" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1004" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1003" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="986" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="985" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1001" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="984" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1000" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="983" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="999" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="982" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="998" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="981" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="997" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="980" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="979" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="978" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="996" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="995" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="994" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="977" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="993" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="976" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="992" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="975" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="974" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="973" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="991" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="990" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="989" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="972" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="971" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="970" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="988" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="987" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="986" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="969" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="985" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="968" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="984" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="967" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="983" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="966" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="982" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="965" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="981" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="964" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="980" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="963" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="979" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="962" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="978" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="961" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="977" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="960" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="976" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="959" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="975" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="958" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="974" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="957" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="973" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18354,193 +18508,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H4 E28:K29 E6:H6 E5:F5 H5">
-    <cfRule type="cellIs" dxfId="956" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="972" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="955" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="971" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="954" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="970" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="953" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="969" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="952" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="968" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G28:G29 G6">
-    <cfRule type="cellIs" dxfId="951" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="967" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="950" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="966" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="949" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="965" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="948" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="964" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="947" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="963" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="946" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="945" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="944" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="962" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="961" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="960" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="943" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="959" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="942" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="941" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="957" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="940" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="956" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="939" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="955" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="938" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="954" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="937" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="936" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="935" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="953" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="952" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="951" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:F5 H5:K5">
-    <cfRule type="cellIs" dxfId="934" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="950" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="933" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="949" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="932" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="931" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="930" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="948" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="947" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="946" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="929" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="928" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="927" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="945" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="944" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="943" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:F5 H5:K5">
-    <cfRule type="cellIs" dxfId="926" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="942" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="925" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="941" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="924" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="940" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="923" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="939" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="922" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="938" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="921" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="937" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="920" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="936" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="919" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="935" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="918" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="934" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="917" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="933" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="916" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="932" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="915" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="931" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="914" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="930" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20199,213 +20353,213 @@
     <mergeCell ref="C3:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="913" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="929" priority="63" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="912" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="928" priority="61" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="911" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="927" priority="62" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="910" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="59" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="909" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="925" priority="60" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="908" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="924" priority="57" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="907" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="923" priority="58" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="906" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="922" priority="55" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="905" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="921" priority="56" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="904" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="920" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="903" priority="51" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="902" priority="52" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="901" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="919" priority="51" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="918" priority="52" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="917" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="900" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="916" priority="50" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="899" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="915" priority="49" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="898" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="914" priority="48" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="897" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="913" priority="47" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="896" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="912" priority="46" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="895" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="911" priority="45" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="894" priority="42" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="893" priority="43" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="892" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="910" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="909" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="908" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="891" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="907" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="890" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="906" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="889" priority="37" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="888" priority="38" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="887" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="905" priority="37" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="904" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="903" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="886" priority="34" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="885" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="902" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="901" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="900" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="883" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="899" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="882" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="898" priority="32" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="881" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="897" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="880" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="896" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="879" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="895" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="878" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="894" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="877" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="893" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="876" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="892" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="875" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="891" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="874" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="890" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="873" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="889" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="872" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="888" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="871" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="887" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="870" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="886" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="869" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="885" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="868" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="884" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="867" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="883" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22142,193 +22296,193 @@
     <mergeCell ref="M29:V29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="866" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="882" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="865" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="881" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="880" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="863" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="879" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="862" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="861" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="877" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="860" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="859" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="875" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="858" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:W28">
-    <cfRule type="cellIs" dxfId="857" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="873" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="856" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="855" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="854" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="872" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="871" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="870" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="853" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="852" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="851" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="867" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="850" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="866" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="849" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="865" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="848" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:W28">
-    <cfRule type="cellIs" dxfId="847" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="863" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="862" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="861" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="844" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="860" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:W28">
-    <cfRule type="cellIs" dxfId="843" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="859" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="842" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="841" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="858" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="857" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="856" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:W28">
-    <cfRule type="cellIs" dxfId="839" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="838" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="837" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="855" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="854" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="853" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="836" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="852" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="835" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:Q7 S7">
-    <cfRule type="cellIs" dxfId="834" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="850" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:Q9 S9">
-    <cfRule type="cellIs" dxfId="833" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="849" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:Q11 S11">
-    <cfRule type="cellIs" dxfId="832" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="848" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:Q13 S13">
-    <cfRule type="cellIs" dxfId="831" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="847" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:Q15 S15">
-    <cfRule type="cellIs" dxfId="830" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="846" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:Q17 S17">
-    <cfRule type="cellIs" dxfId="829" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="845" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:Q19 S19">
-    <cfRule type="cellIs" dxfId="828" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="844" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:Q21 S21">
-    <cfRule type="cellIs" dxfId="827" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="843" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:Q23 S23">
-    <cfRule type="cellIs" dxfId="826" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="842" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:Q25 S25">
-    <cfRule type="cellIs" dxfId="825" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="841" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:Q27 S27">
-    <cfRule type="cellIs" dxfId="824" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="840" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23696,193 +23850,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="823" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="839" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="822" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="821" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="837" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="820" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="819" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="835" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="818" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="817" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="816" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="815" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="814" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="830" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="813" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="812" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="811" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="829" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="828" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="827" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="810" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="809" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="825" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="808" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="807" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="806" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="805" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="804" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="803" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="820" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="819" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="818" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="801" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="817" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="800" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="816" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="799" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="797" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="815" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="814" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="813" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="796" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="795" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="794" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="812" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="811" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="810" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="793" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="809" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="792" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="791" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="807" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="790" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="806" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="789" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="805" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="788" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="804" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="787" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="803" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="786" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="802" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="785" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="801" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="784" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="800" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="783" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="799" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="782" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="798" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="781" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="797" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25246,193 +25400,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="780" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="779" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="777" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="793" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="775" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="774" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="773" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="771" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="787" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="770" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="768" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="786" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="785" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="784" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="767" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="766" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="765" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="764" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="763" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="762" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="761" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="760" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="759" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="777" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="776" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="775" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="758" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="774" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="757" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="773" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="756" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="755" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="772" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="771" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="770" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="753" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="752" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="769" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="768" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="767" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="750" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="766" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="749" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="748" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="764" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="747" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="763" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="746" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="762" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="745" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="761" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="744" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="760" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="743" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="759" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="742" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="758" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="741" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="757" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="740" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="756" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="739" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="755" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="738" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="754" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26796,193 +26950,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="737" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="736" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="735" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="734" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="732" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="731" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="730" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="728" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="744" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="727" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="726" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="725" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="743" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="742" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="741" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="724" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="723" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="722" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="721" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="720" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="719" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="718" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="734" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="733" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="732" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="715" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="731" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="714" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="730" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="713" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="729" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="728" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="727" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="710" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="726" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="725" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="724" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="707" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="723" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="706" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="705" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="721" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="704" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="720" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="703" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="719" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="702" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="718" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="701" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="717" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="700" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="716" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="699" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="715" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="698" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="714" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="697" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="713" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="696" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="712" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="695" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="711" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28442,193 +28596,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="694" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="693" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="691" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="689" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="687" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="685" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="701" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="684" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="700" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="699" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="698" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="681" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="680" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="679" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="678" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="677" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="676" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="675" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="691" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="690" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="689" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="672" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="688" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="671" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="687" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="670" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="686" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="685" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="684" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="667" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="683" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="682" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="681" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="664" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="680" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="663" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="662" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="678" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="661" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="677" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="660" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="676" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="659" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="675" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="658" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="674" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="657" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="673" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="656" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="672" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="655" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="671" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="654" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="670" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="653" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="669" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="652" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="668" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30074,193 +30228,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="651" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="650" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="649" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="648" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="646" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="644" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="642" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="658" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="641" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="657" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="656" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="655" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="638" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="637" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="636" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="635" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="634" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="633" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="632" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="648" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="647" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="646" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="629" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="645" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="628" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="644" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="627" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="643" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="642" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="641" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="624" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="640" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="639" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="638" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="621" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="637" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="620" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="619" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="635" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="618" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="634" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="617" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="633" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="616" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="632" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="615" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="631" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="614" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="630" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="613" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="629" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="612" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="628" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="611" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="627" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="610" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="626" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="609" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="625" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31704,193 +31858,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="608" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="607" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="605" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="603" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="601" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="599" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="615" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="598" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="614" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="613" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="612" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="595" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="594" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="593" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="592" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="591" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="590" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="589" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="587" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="605" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="604" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="603" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="586" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="602" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="585" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="601" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="584" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="600" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="599" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="598" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="581" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="597" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="596" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="595" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="578" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="594" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="577" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="576" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="592" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="575" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="591" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="574" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="590" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="573" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="589" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="572" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="588" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="571" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="587" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="570" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="586" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="569" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="585" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="568" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="584" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="567" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="583" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="566" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="582" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33254,193 +33408,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1351" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1367" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1350" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1366" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1349" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1365" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1348" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1364" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1347" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1363" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1346" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1362" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1345" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1361" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1344" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1360" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1343" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1359" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1342" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1358" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1341" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1340" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1339" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1357" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1356" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1355" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1338" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1354" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1337" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1353" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1336" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1352" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1335" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1351" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1334" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1350" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1333" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1349" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1332" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1331" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1330" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1348" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1347" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1346" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1329" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1345" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1328" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1344" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1327" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1326" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1325" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1343" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1342" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1341" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1324" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1323" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1322" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1340" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1339" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1338" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1321" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1337" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1320" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1336" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1319" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1335" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1318" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1334" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1317" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1333" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1316" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1332" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1315" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1331" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1314" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1330" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1313" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1329" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1312" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1328" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1311" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1327" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1310" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1326" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1309" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1325" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35075,213 +35229,213 @@
     <mergeCell ref="M29:V29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="565" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="47" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="564" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="45" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="46" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="562" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="43" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="44" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="560" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="41" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="42" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="558" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="39" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="40" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="556" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="572" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="555" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="36" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="571" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="570" priority="36" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="569" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="552" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="34" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="551" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="33" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="550" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="32" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="549" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="31" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="548" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="30" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="547" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="29" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="546" priority="26" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="27" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="562" priority="26" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="561" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="560" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="543" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="559" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="542" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="558" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="541" priority="21" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="557" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="556" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="555" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="538" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="554" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="553" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="552" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="535" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="551" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="534" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="16" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="533" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="549" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="532" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="548" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="531" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="547" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="530" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="546" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="529" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="545" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="528" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="544" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="527" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="543" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="526" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="542" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="525" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="541" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="524" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="540" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="523" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="539" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="522" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="538" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="521" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="537" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="520" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="536" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="519" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="535" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36753,193 +36907,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H4 E28:K29 E6:H6 E5:F5 H5">
-    <cfRule type="cellIs" dxfId="518" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="517" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="515" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G28:G29 G6">
-    <cfRule type="cellIs" dxfId="513" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="511" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="509" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="525" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="508" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="524" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="523" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="522" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="505" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="504" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="503" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="502" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="501" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="500" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="499" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="515" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="514" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="513" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:F5 H5:K5">
-    <cfRule type="cellIs" dxfId="496" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="512" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="495" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="511" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="494" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="510" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="509" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="508" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="491" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="507" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="506" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="505" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:F5 H5:K5">
-    <cfRule type="cellIs" dxfId="488" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="504" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="487" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7 N8:N27 R8:R26">
-    <cfRule type="cellIs" dxfId="486" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="502" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:M9 O9:Q9 S9">
-    <cfRule type="cellIs" dxfId="485" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="501" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:M11 O11:Q11 S11">
-    <cfRule type="cellIs" dxfId="484" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="500" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:M13 O13:Q13 S13">
-    <cfRule type="cellIs" dxfId="483" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="499" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:M15 O15:Q15 S15">
-    <cfRule type="cellIs" dxfId="482" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="498" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:I17 K17:M17 O17:Q17 S17">
-    <cfRule type="cellIs" dxfId="481" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="497" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:M19 O19:Q19 S19">
-    <cfRule type="cellIs" dxfId="480" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="496" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:M21 O21:Q21 S21">
-    <cfRule type="cellIs" dxfId="479" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="495" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:M23 O23:Q23 S23">
-    <cfRule type="cellIs" dxfId="478" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="494" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:M25 O25:Q25 S25">
-    <cfRule type="cellIs" dxfId="477" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="493" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:M27 O27:S27">
-    <cfRule type="cellIs" dxfId="476" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="492" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36953,7 +37107,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38431,193 +38585,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="475" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="474" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="472" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="470" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="468" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="466" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="482" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="465" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="481" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="480" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="479" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="462" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="461" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="460" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="459" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="458" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="457" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="456" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="472" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="471" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="470" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="453" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="469" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="452" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="468" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="451" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="467" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="465" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="448" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="464" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="463" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="462" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="445" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="461" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="444" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="443" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="459" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="442" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="458" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="441" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="457" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="440" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="456" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="439" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="455" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="438" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="454" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="437" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="453" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="436" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="452" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="435" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="451" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="434" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="450" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="433" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="449" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39981,193 +40135,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="432" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="431" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="429" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="427" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="425" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="423" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="439" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="422" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="438" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="437" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="419" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="418" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="417" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="416" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="415" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="414" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="413" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="429" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="428" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="410" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="426" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="409" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="425" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="408" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="424" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="423" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="422" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="405" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="421" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="420" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="419" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="402" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="418" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="401" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="400" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="416" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="399" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="415" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="398" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="414" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="397" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="413" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="396" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="412" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="395" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="411" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="394" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="410" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="393" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="409" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="392" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="408" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="391" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="407" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="390" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="406" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40181,7 +40335,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41668,193 +41822,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="389" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="388" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="386" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="384" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="382" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="380" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="396" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="379" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="395" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="393" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="376" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="375" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="374" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="373" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="372" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="371" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="370" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="386" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="384" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="367" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="383" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="366" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="382" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="365" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="381" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="380" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="362" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="378" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="377" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="359" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="375" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="358" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="357" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="373" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="356" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="372" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="355" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="371" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="354" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="370" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="353" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="369" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="352" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="368" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="351" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="367" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="350" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="366" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="349" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="365" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="348" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="364" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="347" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="363" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41867,8 +42021,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43372,193 +43526,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="346" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="345" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="343" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="341" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="339" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="337" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="353" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="336" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="352" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="351" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="350" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="333" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="332" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="331" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="330" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="329" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="328" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="327" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="343" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="341" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="324" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="340" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="323" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="322" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="319" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="316" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="332" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="315" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7 M8:M27">
-    <cfRule type="cellIs" dxfId="314" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="330" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:L9 N9:S9">
-    <cfRule type="cellIs" dxfId="313" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="329" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:L11 N11:S11">
-    <cfRule type="cellIs" dxfId="312" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="328" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:L13 N13:S13">
-    <cfRule type="cellIs" dxfId="311" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="327" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:L15 N15:S15">
-    <cfRule type="cellIs" dxfId="310" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="326" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:L17 N17:S17">
-    <cfRule type="cellIs" dxfId="309" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="325" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:L19 N19:S19">
-    <cfRule type="cellIs" dxfId="308" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:L21 N21:S21">
-    <cfRule type="cellIs" dxfId="307" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="323" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:L23 N23:S23">
-    <cfRule type="cellIs" dxfId="306" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="322" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:L25 N25:S25">
-    <cfRule type="cellIs" dxfId="305" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="321" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:L27 N27:S27">
-    <cfRule type="cellIs" dxfId="304" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="320" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43572,7 +43726,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45056,193 +45210,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="303" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="302" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="300" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="298" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="296" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="294" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="293" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="290" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="289" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="288" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="287" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="286" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="285" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="284" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="281" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="280" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="279" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="276" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="273" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="289" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="272" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="271" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="287" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="270" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="286" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="269" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="285" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="268" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="284" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="267" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="283" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="266" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="282" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="265" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="264" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="280" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="263" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="279" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="262" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="278" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="261" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="277" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45256,7 +45410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46746,193 +46900,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="260" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="259" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="257" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="255" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="253" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="251" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="250" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="247" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="246" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="245" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="244" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="243" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="242" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="241" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="238" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="254" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="237" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="236" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="233" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="230" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="229" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="228" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="244" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="227" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="226" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="225" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="241" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="224" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="223" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="239" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="222" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="238" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="221" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="220" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="219" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="235" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="218" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46944,9 +47098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48553,213 +48707,213 @@
     <mergeCell ref="N5:V5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="217" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="47" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="216" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="45" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="46" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="214" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="43" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="44" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="212" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="41" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="42" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="210" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="39" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="40" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="208" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="207" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="36" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="36" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="204" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="34" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="203" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="33" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="202" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="32" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="201" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="31" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="200" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="30" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="199" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="29" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="198" priority="26" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="27" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="26" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="195" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="211" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="194" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="193" priority="21" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="190" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="187" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="186" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="16" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="185" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="184" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="183" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="182" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="181" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="180" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="196" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="179" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="178" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="177" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="176" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="175" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="174" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="173" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="172" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="171" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48770,11 +48924,11 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48787,9 +48941,10 @@
     <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
@@ -48813,7 +48968,7 @@
       <c r="S1" s="95"/>
       <c r="T1" s="95"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="95"/>
       <c r="B2" s="95"/>
       <c r="C2" s="95"/>
@@ -48835,7 +48990,7 @@
       <c r="S2" s="95"/>
       <c r="T2" s="95"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
         <v>46</v>
       </c>
@@ -48859,7 +49014,7 @@
       <c r="S3" s="99"/>
       <c r="T3" s="99"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>1</v>
       </c>
@@ -48902,15 +49057,17 @@
         <v>5</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N4" s="102"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="104"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>2</v>
       </c>
@@ -48926,15 +49083,17 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-    </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="102"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="104"/>
+    </row>
+    <row r="6" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -48992,11 +49151,17 @@
       <c r="S6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="60" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U6" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -49037,12 +49202,17 @@
         <f>M7*0.95%</f>
         <v>0</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="61">
         <f>S7-Q7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U7" s="83"/>
+      <c r="V7" s="84">
+        <f>R7-U7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>2</v>
       </c>
@@ -49083,12 +49253,17 @@
         <f t="shared" ref="S8:S27" si="4">M8*0.95%</f>
         <v>0</v>
       </c>
-      <c r="T8" s="27">
+      <c r="T8" s="61">
         <f t="shared" ref="T8:T27" si="5">S8-Q8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U8" s="83"/>
+      <c r="V8" s="84">
+        <f t="shared" ref="V8:V27" si="6">R8-U8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>3</v>
       </c>
@@ -49129,12 +49304,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U9" s="83"/>
+      <c r="V9" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>4</v>
       </c>
@@ -49175,12 +49355,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U10" s="83"/>
+      <c r="V10" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -49190,43 +49375,56 @@
       <c r="C11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="29">
+        <v>7029</v>
+      </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="32"/>
       <c r="H11" s="30"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="J11" s="20">
+        <v>10</v>
+      </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7029</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8939</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>193.29750000000001</v>
       </c>
       <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
+      <c r="Q11" s="26">
+        <v>39</v>
+      </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8706.7024999999994</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="27">
+        <v>66.775499999999994</v>
+      </c>
+      <c r="T11" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27.775499999999994</v>
+      </c>
+      <c r="U11" s="83">
+        <v>36</v>
+      </c>
+      <c r="V11" s="84">
+        <f t="shared" si="6"/>
+        <v>8670.7024999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -49236,7 +49434,9 @@
       <c r="C12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="29">
+        <v>9889</v>
+      </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
@@ -49247,32 +49447,41 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9889</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9889</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>271.94749999999999</v>
       </c>
       <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
+      <c r="Q12" s="26">
+        <v>35</v>
+      </c>
       <c r="R12" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9582.0524999999998</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="27">
+        <v>93.945499999999996</v>
+      </c>
+      <c r="T12" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>58.945499999999996</v>
+      </c>
+      <c r="U12" s="83">
+        <v>72</v>
+      </c>
+      <c r="V12" s="84">
+        <f t="shared" si="6"/>
+        <v>9510.0524999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -49282,7 +49491,9 @@
       <c r="C13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="29">
+        <v>10577</v>
+      </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
@@ -49293,32 +49504,41 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10577</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10577</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>290.86750000000001</v>
       </c>
       <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="Q13" s="26">
+        <v>55</v>
+      </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10231.1325</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="27">
+        <v>100.4815</v>
+      </c>
+      <c r="T13" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45.481499999999997</v>
+      </c>
+      <c r="U13" s="83">
+        <v>72</v>
+      </c>
+      <c r="V13" s="84">
+        <f t="shared" si="6"/>
+        <v>10159.1325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>8</v>
       </c>
@@ -49359,12 +49579,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T14" s="27">
+      <c r="T14" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U14" s="83"/>
+      <c r="V14" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>9</v>
       </c>
@@ -49405,12 +49630,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U15" s="83"/>
+      <c r="V15" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>10</v>
       </c>
@@ -49451,12 +49681,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T16" s="27">
+      <c r="T16" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U16" s="83"/>
+      <c r="V16" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -49497,12 +49732,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T17" s="27">
+      <c r="T17" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U17" s="83"/>
+      <c r="V17" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -49512,7 +49752,9 @@
       <c r="C18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="29">
+        <v>29747</v>
+      </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -49523,32 +49765,41 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29747</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29747</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>818.04250000000002</v>
       </c>
       <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
+      <c r="Q18" s="26">
+        <v>100</v>
+      </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28828.9575</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="27">
+        <v>282.59649999999999</v>
+      </c>
+      <c r="T18" s="61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>182.59649999999999</v>
+      </c>
+      <c r="U18" s="83">
+        <v>216</v>
+      </c>
+      <c r="V18" s="84">
+        <f t="shared" si="6"/>
+        <v>28612.9575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -49589,12 +49840,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T19" s="27">
+      <c r="T19" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U19" s="83"/>
+      <c r="V19" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -49635,12 +49891,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T20" s="27">
+      <c r="T20" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U20" s="83"/>
+      <c r="V20" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -49681,12 +49942,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T21" s="27">
+      <c r="T21" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U21" s="83"/>
+      <c r="V21" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -49727,12 +49993,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T22" s="27">
+      <c r="T22" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U22" s="83"/>
+      <c r="V22" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -49773,12 +50044,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T23" s="27">
+      <c r="T23" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U23" s="83"/>
+      <c r="V23" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -49819,12 +50095,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T24" s="27">
+      <c r="T24" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U24" s="83"/>
+      <c r="V24" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -49865,12 +50146,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T25" s="27">
+      <c r="T25" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U25" s="83"/>
+      <c r="V25" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -49911,12 +50197,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T26" s="27">
+      <c r="T26" s="61">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U26" s="83"/>
+      <c r="V26" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -49957,12 +50248,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T27" s="43">
+      <c r="T27" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U27" s="83"/>
+      <c r="V27" s="84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="86" t="s">
         <v>44</v>
       </c>
@@ -49970,74 +50266,82 @@
       <c r="C28" s="88"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
-        <v>0</v>
+        <v>57242</v>
       </c>
       <c r="E28" s="45">
         <f>SUM(E7:E27)</f>
         <v>0</v>
       </c>
       <c r="F28" s="45">
-        <f t="shared" ref="F28:T28" si="6">SUM(F7:F27)</f>
+        <f t="shared" ref="F28:V28" si="7">SUM(F7:F27)</f>
         <v>0</v>
       </c>
       <c r="G28" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H28" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I28" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J28" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="K28" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L28" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="65">
+        <f t="shared" si="7"/>
+        <v>57242</v>
+      </c>
+      <c r="N28" s="65">
+        <f t="shared" si="7"/>
+        <v>59152</v>
+      </c>
+      <c r="O28" s="66">
+        <f t="shared" si="7"/>
+        <v>1574.155</v>
+      </c>
+      <c r="P28" s="65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="65">
+        <f t="shared" si="7"/>
+        <v>229</v>
+      </c>
+      <c r="R28" s="65">
+        <f t="shared" si="7"/>
+        <v>57348.845000000001</v>
+      </c>
+      <c r="S28" s="65">
+        <f t="shared" si="7"/>
+        <v>543.79899999999998</v>
+      </c>
+      <c r="T28" s="67">
+        <f t="shared" si="7"/>
+        <v>314.79899999999998</v>
+      </c>
+      <c r="U28" s="67">
+        <f t="shared" si="7"/>
+        <v>396</v>
+      </c>
+      <c r="V28" s="67">
+        <f t="shared" si="7"/>
+        <v>56952.845000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="89" t="s">
         <v>45</v>
       </c>
@@ -50045,50 +50349,52 @@
       <c r="C29" s="91"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>711107</v>
+        <v>653865</v>
       </c>
       <c r="E29" s="48">
-        <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
+        <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
         <v>640</v>
       </c>
       <c r="F29" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8110</v>
       </c>
       <c r="G29" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H29" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22850</v>
       </c>
       <c r="I29" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1321</v>
       </c>
       <c r="J29" s="48">
-        <f t="shared" si="7"/>
-        <v>597</v>
+        <f t="shared" si="8"/>
+        <v>587</v>
       </c>
       <c r="K29" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>185</v>
       </c>
       <c r="L29" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="M29" s="92"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="94"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="108"/>
+      <c r="V29" s="108"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -50114,207 +50420,228 @@
   <mergeCells count="10">
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="M29:T29"/>
     <mergeCell ref="A1:T2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:T3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="N4:T4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="M29:V29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="170" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="47" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="169" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="45" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="46" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="167" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="43" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="44" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="165" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="41" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="42" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="163" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="39" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="40" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="161" priority="34" operator="lessThan">
+  <conditionalFormatting sqref="T6:T28 U28:V28">
+    <cfRule type="cellIs" dxfId="177" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="160" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="36" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="157" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="34" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="156" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="33" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="155" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="32" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="154" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="31" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="153" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="30" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="152" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="29" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="151" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="24" operator="lessThan">
+  <conditionalFormatting sqref="T7:T28 U28:V28">
+    <cfRule type="cellIs" dxfId="167" priority="26" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="148" priority="21" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="147" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6:T28 U28:V28">
+    <cfRule type="cellIs" dxfId="163" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="146" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="143" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:T28 U28:V28">
+    <cfRule type="cellIs" dxfId="159" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="140" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="139" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="16" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="138" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="137" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="136" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="135" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="134" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="133" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="132" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="131" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="130" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="129" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="128" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -51840,193 +52167,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1308" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1324" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1307" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1323" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1306" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1322" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1305" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1321" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1304" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1320" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1303" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1319" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1302" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1318" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1301" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1317" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1300" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1316" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1299" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1315" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1298" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1297" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1296" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1314" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1313" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1312" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1295" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1311" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1294" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1310" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1293" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1309" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1292" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1308" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1291" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1307" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1290" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1306" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1289" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1288" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1287" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1305" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1304" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1303" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1286" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1302" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1285" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1301" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1284" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1283" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1282" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1300" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1299" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1298" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1281" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1280" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1279" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1297" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1296" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1295" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1278" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1294" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1277" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1293" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1276" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1292" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1275" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1291" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1274" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1290" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1273" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1289" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1272" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1288" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1271" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1287" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1270" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1286" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1269" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1285" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1268" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1284" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1267" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1283" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1266" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1282" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52133,7 +52460,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>711107</v>
+        <v>653865</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
@@ -52157,7 +52484,7 @@
       </c>
       <c r="J4" s="2">
         <f>'29'!J29</f>
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="K4" s="2">
         <f>'29'!K29</f>
@@ -53311,7 +53638,7 @@
       <c r="C29" s="91"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>711107</v>
+        <v>653865</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -53335,7 +53662,7 @@
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
@@ -53390,193 +53717,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="127" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="126" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="124" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="122" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="120" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="118" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="117" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="114" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="113" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="112" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="111" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="110" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="109" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="108" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="105" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="104" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="103" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="100" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="97" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="96" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="95" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="94" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="93" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="92" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="91" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="90" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="89" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="88" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="87" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="85" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53683,7 +54010,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>711107</v>
+        <v>653865</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
@@ -53707,7 +54034,7 @@
       </c>
       <c r="J4" s="2">
         <f>'30'!J29</f>
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
@@ -54861,7 +55188,7 @@
       <c r="C29" s="91"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>711107</v>
+        <v>653865</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -54885,7 +55212,7 @@
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
@@ -54940,193 +55267,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="84" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="83" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="81" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="79" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="77" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="75" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="74" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="71" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="70" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="69" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="68" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="67" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="66" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="65" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="62" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="61" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="60" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="57" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="54" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55705,7 +56032,7 @@
       </c>
       <c r="D11" s="21">
         <f>'1'!D11+'2'!D11+'3'!D11+'4'!D11+'5'!D11+'6'!D11+'7'!D11+'8'!D11+'9'!D11+'10'!D11+'11'!D11+'12'!D11+'13'!D11+'14'!D11+'15'!D11+'16'!D11+'17'!D11+'18'!D11+'19'!D11+'20'!D11+'21'!D11+'22'!D11+'23'!D11+'24'!D11+'25'!D11+'26'!D11+'27'!D11+'28'!D11+'29'!D11+'30'!D11+'31'!D11</f>
-        <v>125001</v>
+        <v>132030</v>
       </c>
       <c r="E11" s="21">
         <f>'1'!E11+'2'!E11+'3'!E11+'4'!E11+'5'!E11+'6'!E11+'7'!E11+'8'!E11+'9'!E11+'10'!E11+'11'!E11+'12'!E11+'13'!E11+'14'!E11+'15'!E11+'16'!E11+'17'!E11+'18'!E11+'19'!E11+'20'!E11+'21'!E11+'22'!E11+'23'!E11+'24'!E11+'25'!E11+'26'!E11+'27'!E11+'28'!E11+'29'!E11+'30'!E11+'31'!E11</f>
@@ -55729,7 +56056,7 @@
       </c>
       <c r="J11" s="21">
         <f>'1'!J11+'2'!J11+'3'!J11+'4'!J11+'5'!J11+'6'!J11+'7'!J11+'8'!J11+'9'!J11+'10'!J11+'11'!J11+'12'!J11+'13'!J11+'14'!J11+'15'!J11+'16'!J11+'17'!J11+'18'!J11+'19'!J11+'20'!J11+'21'!J11+'22'!J11+'23'!J11+'24'!J11+'25'!J11+'26'!J11+'27'!J11+'28'!J11+'29'!J11+'30'!J11+'31'!J11</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K11" s="21">
         <f>'1'!K11+'2'!K11+'3'!K11+'4'!K11+'5'!K11+'6'!K11+'7'!K11+'8'!K11+'9'!K11+'10'!K11+'11'!K11+'12'!K11+'13'!K11+'14'!K11+'15'!K11+'16'!K11+'17'!K11+'18'!K11+'19'!K11+'20'!K11+'21'!K11+'22'!K11+'23'!K11+'24'!K11+'25'!K11+'26'!K11+'27'!K11+'28'!K11+'29'!K11+'30'!K11+'31'!K11</f>
@@ -55741,32 +56068,32 @@
       </c>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>146931</v>
+        <v>153960</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>160784</v>
+        <v>169723</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>4040.6025</v>
+        <v>4233.8999999999996</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26">
         <f>'1'!Q11+'2'!Q11+'3'!Q11+'4'!Q11+'5'!Q11+'6'!Q11+'7'!Q11+'8'!Q11+'9'!Q11+'10'!Q11+'11'!Q11+'12'!Q11+'13'!Q11+'14'!Q11+'15'!Q11+'16'!Q11+'17'!Q11+'18'!Q11+'19'!Q11+'20'!Q11+'21'!Q11+'22'!Q11+'23'!Q11+'24'!Q11+'25'!Q11+'26'!Q11+'27'!Q11+'28'!Q11+'29'!Q11+'30'!Q11+'31'!Q11</f>
-        <v>777</v>
+        <v>816</v>
       </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>155966.39749999999</v>
+        <v>164673.1</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>1395.8444999999999</v>
+        <v>1462.62</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>618.84449999999993</v>
+        <v>646.61999999999989</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -55781,7 +56108,7 @@
       </c>
       <c r="D12" s="21">
         <f>'1'!D12+'2'!D12+'3'!D12+'4'!D12+'5'!D12+'6'!D12+'7'!D12+'8'!D12+'9'!D12+'10'!D12+'11'!D12+'12'!D12+'13'!D12+'14'!D12+'15'!D12+'16'!D12+'17'!D12+'18'!D12+'19'!D12+'20'!D12+'21'!D12+'22'!D12+'23'!D12+'24'!D12+'25'!D12+'26'!D12+'27'!D12+'28'!D12+'29'!D12+'30'!D12+'31'!D12</f>
-        <v>134853</v>
+        <v>144742</v>
       </c>
       <c r="E12" s="21">
         <f>'1'!E12+'2'!E12+'3'!E12+'4'!E12+'5'!E12+'6'!E12+'7'!E12+'8'!E12+'9'!E12+'10'!E12+'11'!E12+'12'!E12+'13'!E12+'14'!E12+'15'!E12+'16'!E12+'17'!E12+'18'!E12+'19'!E12+'20'!E12+'21'!E12+'22'!E12+'23'!E12+'24'!E12+'25'!E12+'26'!E12+'27'!E12+'28'!E12+'29'!E12+'30'!E12+'31'!E12</f>
@@ -55817,32 +56144,32 @@
       </c>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>137653</v>
+        <v>147542</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>139473</v>
+        <v>149362</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>3785.4575</v>
+        <v>4057.4050000000002</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26">
         <f>'1'!Q12+'2'!Q12+'3'!Q12+'4'!Q12+'5'!Q12+'6'!Q12+'7'!Q12+'8'!Q12+'9'!Q12+'10'!Q12+'11'!Q12+'12'!Q12+'13'!Q12+'14'!Q12+'15'!Q12+'16'!Q12+'17'!Q12+'18'!Q12+'19'!Q12+'20'!Q12+'21'!Q12+'22'!Q12+'23'!Q12+'24'!Q12+'25'!Q12+'26'!Q12+'27'!Q12+'28'!Q12+'29'!Q12+'30'!Q12+'31'!Q12</f>
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="R12" s="24">
         <f t="shared" si="3"/>
-        <v>135067.54250000001</v>
+        <v>144649.595</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
-        <v>1307.7035000000001</v>
+        <v>1401.6489999999999</v>
       </c>
       <c r="T12" s="27">
         <f t="shared" si="5"/>
-        <v>687.70350000000008</v>
+        <v>746.64899999999989</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -55857,7 +56184,7 @@
       </c>
       <c r="D13" s="21">
         <f>'1'!D13+'2'!D13+'3'!D13+'4'!D13+'5'!D13+'6'!D13+'7'!D13+'8'!D13+'9'!D13+'10'!D13+'11'!D13+'12'!D13+'13'!D13+'14'!D13+'15'!D13+'16'!D13+'17'!D13+'18'!D13+'19'!D13+'20'!D13+'21'!D13+'22'!D13+'23'!D13+'24'!D13+'25'!D13+'26'!D13+'27'!D13+'28'!D13+'29'!D13+'30'!D13+'31'!D13</f>
-        <v>124841</v>
+        <v>135418</v>
       </c>
       <c r="E13" s="21">
         <f>'1'!E13+'2'!E13+'3'!E13+'4'!E13+'5'!E13+'6'!E13+'7'!E13+'8'!E13+'9'!E13+'10'!E13+'11'!E13+'12'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13+'20'!E13+'21'!E13+'22'!E13+'23'!E13+'24'!E13+'25'!E13+'26'!E13+'27'!E13+'28'!E13+'29'!E13+'30'!E13+'31'!E13</f>
@@ -55893,32 +56220,32 @@
       </c>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>131661</v>
+        <v>142238</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>132043</v>
+        <v>142620</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>3620.6775000000002</v>
+        <v>3911.5450000000001</v>
       </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="26">
         <f>'1'!Q13+'2'!Q13+'3'!Q13+'4'!Q13+'5'!Q13+'6'!Q13+'7'!Q13+'8'!Q13+'9'!Q13+'10'!Q13+'11'!Q13+'12'!Q13+'13'!Q13+'14'!Q13+'15'!Q13+'16'!Q13+'17'!Q13+'18'!Q13+'19'!Q13+'20'!Q13+'21'!Q13+'22'!Q13+'23'!Q13+'24'!Q13+'25'!Q13+'26'!Q13+'27'!Q13+'28'!Q13+'29'!Q13+'30'!Q13+'31'!Q13</f>
-        <v>1185</v>
+        <v>1240</v>
       </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>127237.32249999999</v>
+        <v>137468.45499999999</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>1250.7794999999999</v>
+        <v>1351.261</v>
       </c>
       <c r="T13" s="27">
         <f t="shared" si="5"/>
-        <v>65.779499999999871</v>
+        <v>111.26099999999997</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -56237,7 +56564,7 @@
       </c>
       <c r="D18" s="21">
         <f>'1'!D18+'2'!D18+'3'!D18+'4'!D18+'5'!D18+'6'!D18+'7'!D18+'8'!D18+'9'!D18+'10'!D18+'11'!D18+'12'!D18+'13'!D18+'14'!D18+'15'!D18+'16'!D18+'17'!D18+'18'!D18+'19'!D18+'20'!D18+'21'!D18+'22'!D18+'23'!D18+'24'!D18+'25'!D18+'26'!D18+'27'!D18+'28'!D18+'29'!D18+'30'!D18+'31'!D18</f>
-        <v>242018</v>
+        <v>271765</v>
       </c>
       <c r="E18" s="21">
         <f>'1'!E18+'2'!E18+'3'!E18+'4'!E18+'5'!E18+'6'!E18+'7'!E18+'8'!E18+'9'!E18+'10'!E18+'11'!E18+'12'!E18+'13'!E18+'14'!E18+'15'!E18+'16'!E18+'17'!E18+'18'!E18+'19'!E18+'20'!E18+'21'!E18+'22'!E18+'23'!E18+'24'!E18+'25'!E18+'26'!E18+'27'!E18+'28'!E18+'29'!E18+'30'!E18+'31'!E18</f>
@@ -56273,32 +56600,32 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>251658</v>
+        <v>281405</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>266612</v>
+        <v>296359</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>6920.5950000000003</v>
+        <v>7738.6374999999998</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
         <f>'1'!Q18+'2'!Q18+'3'!Q18+'4'!Q18+'5'!Q18+'6'!Q18+'7'!Q18+'8'!Q18+'9'!Q18+'10'!Q18+'11'!Q18+'12'!Q18+'13'!Q18+'14'!Q18+'15'!Q18+'16'!Q18+'17'!Q18+'18'!Q18+'19'!Q18+'20'!Q18+'21'!Q18+'22'!Q18+'23'!Q18+'24'!Q18+'25'!Q18+'26'!Q18+'27'!Q18+'28'!Q18+'29'!Q18+'30'!Q18+'31'!Q18</f>
-        <v>3360</v>
+        <v>3460</v>
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>256331.405</v>
+        <v>285160.36249999999</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>2390.7509999999997</v>
+        <v>2673.3474999999999</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>-969.24900000000025</v>
+        <v>-786.65250000000015</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -56993,7 +57320,7 @@
       <c r="C28" s="88"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
-        <v>5322481</v>
+        <v>5379723</v>
       </c>
       <c r="E28" s="45">
         <f>SUM(E7:E27)</f>
@@ -57017,7 +57344,7 @@
       </c>
       <c r="J28" s="45">
         <f t="shared" si="6"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K28" s="45">
         <f t="shared" si="6"/>
@@ -57029,15 +57356,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="6"/>
-        <v>5698891</v>
+        <v>5756133</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="6"/>
-        <v>5961138</v>
+        <v>6020290</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="6"/>
-        <v>156719.5025</v>
+        <v>158293.6575</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="6"/>
@@ -57045,19 +57372,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="6"/>
-        <v>50268</v>
+        <v>50497</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="6"/>
-        <v>5754150.4974999996</v>
+        <v>5811499.3425000003</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="6"/>
-        <v>54139.464500000002</v>
+        <v>54683.263500000001</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="6"/>
-        <v>3871.4644999999987</v>
+        <v>4186.2634999999973</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57068,7 +57395,7 @@
       <c r="C29" s="91"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>711107</v>
+        <v>653865</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -57092,7 +57419,7 @@
       </c>
       <c r="J29" s="48">
         <f t="shared" si="7"/>
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
@@ -57147,188 +57474,188 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E28:K29 E4:H4 E6:H6">
-    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="44" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E28:K29 E4 E6">
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="42" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="43" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F28:F29 F4 F6">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="40" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="41" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G29 G4 G6">
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="38" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29 H4 H6">
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="36" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="37" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:K28 E4 E6">
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="31" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="30" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I29 I4 I6">
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="29" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J29 J4 J6">
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="28" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K29 K4 K6">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="27" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="26" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7 Q8:Q27 D8:L27">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:L5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59002,213 +59329,213 @@
     <mergeCell ref="N29:V29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H4 E28:K29 E6:H6 E5:F5 H5">
-    <cfRule type="cellIs" dxfId="1265" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="1281" priority="47" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1264" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="1280" priority="45" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1263" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="1279" priority="46" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1262" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1278" priority="43" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1261" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1277" priority="44" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G28:G29 G6">
-    <cfRule type="cellIs" dxfId="1260" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1276" priority="41" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1259" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1275" priority="42" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1258" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1274" priority="39" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1257" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1273" priority="40" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="1256" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1272" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1255" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1254" priority="36" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1253" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1271" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1270" priority="36" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1269" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1252" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="1268" priority="34" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1251" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="1267" priority="33" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1250" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1266" priority="32" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1249" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="1265" priority="31" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1248" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1264" priority="30" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1247" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1263" priority="29" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="1246" priority="26" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1245" priority="27" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1244" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1262" priority="26" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1261" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1260" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:F5 H5:K5">
-    <cfRule type="cellIs" dxfId="1243" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1259" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="1242" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1258" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1241" priority="21" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1240" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1239" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1257" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1256" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1255" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="1238" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1237" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1236" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1254" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1253" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1252" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:F5 H5:K5">
-    <cfRule type="cellIs" dxfId="1235" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1251" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1234" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="1250" priority="16" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1233" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1249" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1232" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1248" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1231" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1247" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1230" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1246" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1229" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1245" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1228" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1244" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1227" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1243" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1226" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1242" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1225" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1241" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1224" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1240" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1223" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1239" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="1222" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1238" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="1221" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1237" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="1220" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1236" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="1219" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1235" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60836,213 +61163,213 @@
     <mergeCell ref="M29:V29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1218" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="1234" priority="63" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1217" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="1233" priority="61" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1216" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="1232" priority="62" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1215" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="1231" priority="59" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1214" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="1230" priority="60" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1213" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="1229" priority="57" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1212" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="1228" priority="58" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1211" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="1227" priority="55" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1210" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="1226" priority="56" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="1209" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1225" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1208" priority="51" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1207" priority="52" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1206" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1224" priority="51" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1223" priority="52" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1222" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1205" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="1221" priority="50" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1204" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="1220" priority="49" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1203" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="1219" priority="48" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1202" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="1218" priority="47" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1201" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="1217" priority="46" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1200" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="1216" priority="45" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="1199" priority="42" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1198" priority="43" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1197" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1215" priority="42" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1214" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1213" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1196" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1212" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="1195" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1211" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1194" priority="37" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1193" priority="38" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1192" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1210" priority="37" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1209" priority="38" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1208" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28:V28">
-    <cfRule type="cellIs" dxfId="1191" priority="34" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1190" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1189" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1207" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1206" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1205" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1188" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1204" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1187" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1203" priority="32" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1186" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1202" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1185" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1201" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1184" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1200" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1183" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1199" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1182" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1198" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1181" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1197" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1180" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1196" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1179" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1195" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1178" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1194" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1177" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1193" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1176" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1192" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="1175" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1191" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="1174" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1190" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="1173" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1189" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="1172" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1188" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62538,193 +62865,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1171" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1187" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1170" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1186" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1169" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1185" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1168" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1184" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1167" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1183" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1166" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1182" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1165" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1181" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1164" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1180" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1163" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1179" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1162" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1178" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1161" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1160" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1159" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1177" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1176" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1175" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1158" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1174" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1157" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1173" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1156" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1172" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1155" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1171" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1154" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1170" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1153" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1169" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1152" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1151" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1150" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1168" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1167" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1166" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1149" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1165" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1148" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1164" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1147" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1146" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1145" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1163" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1162" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1161" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1144" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1143" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1142" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1160" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1159" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1158" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1141" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1157" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1140" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1156" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1139" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1155" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1138" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1154" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1137" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1153" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1136" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1152" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1135" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1151" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1134" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1150" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1133" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1149" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1132" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1148" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1131" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1147" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1130" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1146" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1129" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1145" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64206,193 +64533,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1128" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1144" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1127" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1143" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1126" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1142" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1125" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1141" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1124" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1140" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1123" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1139" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1122" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1138" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1121" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1137" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1120" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1136" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1119" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1135" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1118" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1117" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1116" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1134" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1133" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1132" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1115" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1131" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1114" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1130" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1113" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1129" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1112" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1128" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1111" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1127" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1110" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1126" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1109" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1108" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1107" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1125" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1124" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1123" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1106" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1122" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1105" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1121" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1104" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1103" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1102" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1120" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1119" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1118" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1101" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1100" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1099" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1117" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1116" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1115" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1098" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1114" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1097" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1113" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1096" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1112" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1095" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1111" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1094" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1110" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1093" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1109" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1092" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1108" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1091" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1107" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1090" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1106" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1089" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1105" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1088" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1104" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1087" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1103" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1086" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1102" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65886,193 +66213,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1085" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1101" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1084" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1100" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1083" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1099" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1082" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1098" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1081" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1097" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1080" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1096" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1079" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1095" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1078" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1094" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1077" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1093" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1076" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1092" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1075" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1074" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1073" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1091" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1090" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1089" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1072" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1088" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1071" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1087" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1070" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1086" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1069" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1085" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1068" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1084" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1067" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1083" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1066" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1065" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1064" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1082" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1081" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1080" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1063" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1079" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1062" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1078" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1061" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1060" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1059" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1077" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1076" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1075" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1058" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1057" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1056" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1074" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1073" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1072" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1055" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1071" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1054" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1070" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1053" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1069" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1052" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1068" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1051" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1067" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1050" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1066" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1049" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1065" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1048" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1064" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1047" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1063" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1046" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1062" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1045" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1061" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1044" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1060" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1043" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1059" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67436,193 +67763,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1042" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1058" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1041" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1057" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1040" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1056" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1039" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1055" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1038" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1054" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1037" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1053" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1036" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1052" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1035" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1051" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1034" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1050" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1033" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1049" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1032" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1031" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1030" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1048" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1047" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1046" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1029" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1045" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1028" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1044" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1027" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1043" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1026" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1042" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1025" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1041" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1024" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1040" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1023" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1022" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1021" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1039" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1038" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1037" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1020" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1036" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1019" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1035" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1018" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1017" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1016" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1034" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1033" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1032" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1015" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1014" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1013" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1031" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1030" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1029" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1012" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1028" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1011" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1027" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1010" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1026" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1009" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1025" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1008" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1024" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1007" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1023" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1006" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1022" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1005" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1021" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1004" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1020" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1003" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1019" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1002" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1018" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1001" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1017" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1000" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1016" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
